--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt3-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt3-Lrp6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Wnt3</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1188736666666667</v>
+        <v>0.02136666666666667</v>
       </c>
       <c r="H2">
-        <v>0.356621</v>
+        <v>0.0641</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.123436</v>
+        <v>12.86269466666666</v>
       </c>
       <c r="N2">
-        <v>39.370308</v>
+        <v>38.58808399999999</v>
       </c>
       <c r="O2">
-        <v>0.1528215756229904</v>
+        <v>0.1337831063410017</v>
       </c>
       <c r="P2">
-        <v>0.1528215756229904</v>
+        <v>0.1337831063410017</v>
       </c>
       <c r="Q2">
-        <v>1.560030956585333</v>
+        <v>0.2748329093777778</v>
       </c>
       <c r="R2">
-        <v>14.040278609268</v>
+        <v>2.4734961844</v>
       </c>
       <c r="S2">
-        <v>0.1528215756229904</v>
+        <v>0.01386678489773651</v>
       </c>
       <c r="T2">
-        <v>0.1528215756229904</v>
+        <v>0.01386678489773651</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1188736666666667</v>
+        <v>0.02136666666666667</v>
       </c>
       <c r="H3">
-        <v>0.356621</v>
+        <v>0.0641</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>103.640041</v>
       </c>
       <c r="O3">
-        <v>0.4022938901888023</v>
+        <v>0.3593152390330854</v>
       </c>
       <c r="P3">
-        <v>0.4022938901888023</v>
+        <v>0.3593152390330854</v>
       </c>
       <c r="Q3">
-        <v>4.106690562384555</v>
+        <v>0.7381474031222224</v>
       </c>
       <c r="R3">
-        <v>36.96021506146099</v>
+        <v>6.643326628100001</v>
       </c>
       <c r="S3">
-        <v>0.4022938901888023</v>
+        <v>0.03724347016917431</v>
       </c>
       <c r="T3">
-        <v>0.4022938901888023</v>
+        <v>0.03724347016917431</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1188736666666667</v>
+        <v>0.02136666666666667</v>
       </c>
       <c r="H4">
-        <v>0.356621</v>
+        <v>0.0641</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.12064766666666</v>
+        <v>18.65324433333334</v>
       </c>
       <c r="N4">
-        <v>45.361943</v>
+        <v>55.95973300000001</v>
       </c>
       <c r="O4">
-        <v>0.1760789781624335</v>
+        <v>0.1940098117012772</v>
       </c>
       <c r="P4">
-        <v>0.1760789781624335</v>
+        <v>0.1940098117012772</v>
       </c>
       <c r="Q4">
-        <v>1.797446830511444</v>
+        <v>0.3985576539222224</v>
       </c>
       <c r="R4">
-        <v>16.177021474603</v>
+        <v>3.587018885300001</v>
       </c>
       <c r="S4">
-        <v>0.1760789781624335</v>
+        <v>0.02010935760494788</v>
       </c>
       <c r="T4">
-        <v>0.1760789781624335</v>
+        <v>0.02010935760494788</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1188736666666667</v>
+        <v>0.02136666666666667</v>
       </c>
       <c r="H5">
-        <v>0.356621</v>
+        <v>0.0641</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.902825333333333</v>
+        <v>7.643308666666666</v>
       </c>
       <c r="N5">
-        <v>20.708476</v>
+        <v>22.929926</v>
       </c>
       <c r="O5">
-        <v>0.08038296096314212</v>
+        <v>0.07949699519803316</v>
       </c>
       <c r="P5">
-        <v>0.08038296096314212</v>
+        <v>0.07949699519803316</v>
       </c>
       <c r="Q5">
-        <v>0.8205641577328888</v>
+        <v>0.1633120285111111</v>
       </c>
       <c r="R5">
-        <v>7.385077419596</v>
+        <v>1.4698082566</v>
       </c>
       <c r="S5">
-        <v>0.08038296096314212</v>
+        <v>0.008239962149015114</v>
       </c>
       <c r="T5">
-        <v>0.08038296096314212</v>
+        <v>0.008239962149015113</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,681 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.02136666666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.0641</v>
+      </c>
+      <c r="I6">
+        <v>0.1036512402574302</v>
+      </c>
+      <c r="J6">
+        <v>0.1036512402574302</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>22.43995333333334</v>
+      </c>
+      <c r="N6">
+        <v>67.31986000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.2333948477266026</v>
+      </c>
+      <c r="P6">
+        <v>0.2333948477266026</v>
+      </c>
+      <c r="Q6">
+        <v>0.479467002888889</v>
+      </c>
+      <c r="R6">
+        <v>4.315203026000001</v>
+      </c>
+      <c r="S6">
+        <v>0.02419166543655643</v>
+      </c>
+      <c r="T6">
+        <v>0.02419166543655643</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.04194033333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.125821</v>
+      </c>
+      <c r="I7">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="J7">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>12.86269466666666</v>
+      </c>
+      <c r="N7">
+        <v>38.58808399999999</v>
+      </c>
+      <c r="O7">
+        <v>0.1337831063410017</v>
+      </c>
+      <c r="P7">
+        <v>0.1337831063410017</v>
+      </c>
+      <c r="Q7">
+        <v>0.5394657018848887</v>
+      </c>
+      <c r="R7">
+        <v>4.855191316963999</v>
+      </c>
+      <c r="S7">
+        <v>0.0272189195416241</v>
+      </c>
+      <c r="T7">
+        <v>0.0272189195416241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.04194033333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.125821</v>
+      </c>
+      <c r="I8">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="J8">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>34.54668033333333</v>
+      </c>
+      <c r="N8">
+        <v>103.640041</v>
+      </c>
+      <c r="O8">
+        <v>0.3593152390330854</v>
+      </c>
+      <c r="P8">
+        <v>0.3593152390330854</v>
+      </c>
+      <c r="Q8">
+        <v>1.448899288740111</v>
+      </c>
+      <c r="R8">
+        <v>13.040093598661</v>
+      </c>
+      <c r="S8">
+        <v>0.07310469048604806</v>
+      </c>
+      <c r="T8">
+        <v>0.07310469048604806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.04194033333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.125821</v>
+      </c>
+      <c r="I9">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="J9">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>18.65324433333334</v>
+      </c>
+      <c r="N9">
+        <v>55.95973300000001</v>
+      </c>
+      <c r="O9">
+        <v>0.1940098117012772</v>
+      </c>
+      <c r="P9">
+        <v>0.1940098117012772</v>
+      </c>
+      <c r="Q9">
+        <v>0.7823232850881112</v>
+      </c>
+      <c r="R9">
+        <v>7.040909565793</v>
+      </c>
+      <c r="S9">
+        <v>0.03947237883326282</v>
+      </c>
+      <c r="T9">
+        <v>0.03947237883326282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.04194033333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.125821</v>
+      </c>
+      <c r="I10">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="J10">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.643308666666666</v>
+      </c>
+      <c r="N10">
+        <v>22.929926</v>
+      </c>
+      <c r="O10">
+        <v>0.07949699519803316</v>
+      </c>
+      <c r="P10">
+        <v>0.07949699519803316</v>
+      </c>
+      <c r="Q10">
+        <v>0.3205629132495555</v>
+      </c>
+      <c r="R10">
+        <v>2.885066219246</v>
+      </c>
+      <c r="S10">
+        <v>0.01617410729409096</v>
+      </c>
+      <c r="T10">
+        <v>0.01617410729409096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.04194033333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.125821</v>
+      </c>
+      <c r="I11">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="J11">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>22.43995333333334</v>
+      </c>
+      <c r="N11">
+        <v>67.31986000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.2333948477266026</v>
+      </c>
+      <c r="P11">
+        <v>0.2333948477266026</v>
+      </c>
+      <c r="Q11">
+        <v>0.9411391227844444</v>
+      </c>
+      <c r="R11">
+        <v>8.47025210506</v>
+      </c>
+      <c r="S11">
+        <v>0.04748548419489806</v>
+      </c>
+      <c r="T11">
+        <v>0.04748548419489807</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.142833</v>
+      </c>
+      <c r="H12">
+        <v>0.428499</v>
+      </c>
+      <c r="I12">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="J12">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>12.86269466666666</v>
+      </c>
+      <c r="N12">
+        <v>38.58808399999999</v>
+      </c>
+      <c r="O12">
+        <v>0.1337831063410017</v>
+      </c>
+      <c r="P12">
+        <v>0.1337831063410017</v>
+      </c>
+      <c r="Q12">
+        <v>1.837217267323999</v>
+      </c>
+      <c r="R12">
+        <v>16.534955405916</v>
+      </c>
+      <c r="S12">
+        <v>0.09269740190164109</v>
+      </c>
+      <c r="T12">
+        <v>0.09269740190164109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
+      <c r="E13">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="F13">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.1188736666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.356621</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>16.18064633333333</v>
-      </c>
-      <c r="N6">
-        <v>48.541939</v>
-      </c>
-      <c r="O6">
-        <v>0.1884225950626316</v>
-      </c>
-      <c r="P6">
-        <v>0.1884225950626316</v>
-      </c>
-      <c r="Q6">
-        <v>1.923452758679889</v>
-      </c>
-      <c r="R6">
-        <v>17.311074828119</v>
-      </c>
-      <c r="S6">
-        <v>0.1884225950626316</v>
-      </c>
-      <c r="T6">
-        <v>0.1884225950626316</v>
+      <c r="G13">
+        <v>0.142833</v>
+      </c>
+      <c r="H13">
+        <v>0.428499</v>
+      </c>
+      <c r="I13">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="J13">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>34.54668033333333</v>
+      </c>
+      <c r="N13">
+        <v>103.640041</v>
+      </c>
+      <c r="O13">
+        <v>0.3593152390330854</v>
+      </c>
+      <c r="P13">
+        <v>0.3593152390330854</v>
+      </c>
+      <c r="Q13">
+        <v>4.934405992051</v>
+      </c>
+      <c r="R13">
+        <v>44.40965392845899</v>
+      </c>
+      <c r="S13">
+        <v>0.2489670783778631</v>
+      </c>
+      <c r="T13">
+        <v>0.2489670783778631</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.142833</v>
+      </c>
+      <c r="H14">
+        <v>0.428499</v>
+      </c>
+      <c r="I14">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="J14">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>18.65324433333334</v>
+      </c>
+      <c r="N14">
+        <v>55.95973300000001</v>
+      </c>
+      <c r="O14">
+        <v>0.1940098117012772</v>
+      </c>
+      <c r="P14">
+        <v>0.1940098117012772</v>
+      </c>
+      <c r="Q14">
+        <v>2.664298847863</v>
+      </c>
+      <c r="R14">
+        <v>23.978689630767</v>
+      </c>
+      <c r="S14">
+        <v>0.1344280752630664</v>
+      </c>
+      <c r="T14">
+        <v>0.1344280752630664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.142833</v>
+      </c>
+      <c r="H15">
+        <v>0.428499</v>
+      </c>
+      <c r="I15">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="J15">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.643308666666666</v>
+      </c>
+      <c r="N15">
+        <v>22.929926</v>
+      </c>
+      <c r="O15">
+        <v>0.07949699519803316</v>
+      </c>
+      <c r="P15">
+        <v>0.07949699519803316</v>
+      </c>
+      <c r="Q15">
+        <v>1.091716706786</v>
+      </c>
+      <c r="R15">
+        <v>9.825450361073999</v>
+      </c>
+      <c r="S15">
+        <v>0.05508292575492708</v>
+      </c>
+      <c r="T15">
+        <v>0.05508292575492708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.142833</v>
+      </c>
+      <c r="H16">
+        <v>0.428499</v>
+      </c>
+      <c r="I16">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="J16">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>22.43995333333334</v>
+      </c>
+      <c r="N16">
+        <v>67.31986000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.2333948477266026</v>
+      </c>
+      <c r="P16">
+        <v>0.2333948477266026</v>
+      </c>
+      <c r="Q16">
+        <v>3.20516585446</v>
+      </c>
+      <c r="R16">
+        <v>28.84649269014</v>
+      </c>
+      <c r="S16">
+        <v>0.1617176980951481</v>
+      </c>
+      <c r="T16">
+        <v>0.1617176980951481</v>
       </c>
     </row>
   </sheetData>
